--- a/Job Postings Analysis/Analyiss Per Skills.xlsx
+++ b/Job Postings Analysis/Analyiss Per Skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkass\OneDrive\Desktop\ICSE 2026\Educating Prompt Engineering\Jobs\FINAL FINAL JOB ANALYSIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkass\OneDrive\Documents\GitHub\PromptEngineeringEducation\Job Postings Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F32B87B4-CD16-4D38-B484-E89BA0CF5EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B917B5CA-B2D2-4192-845D-897898577F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18648" windowHeight="11784" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18648" windowHeight="11784" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cleaned" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,18 @@
     <sheet name="summary_ml_frameworks" sheetId="4" r:id="rId4"/>
     <sheet name="summary_cloud_platforms" sheetId="5" r:id="rId5"/>
     <sheet name="summary_soft_skills" sheetId="6" r:id="rId6"/>
-    <sheet name="summary_prompt_techniques" sheetId="7" r:id="rId7"/>
-    <sheet name="summary_se_knowledge" sheetId="8" r:id="rId8"/>
-    <sheet name="summary_tools_libraries" sheetId="9" r:id="rId9"/>
-    <sheet name="summary_task_types" sheetId="10" r:id="rId10"/>
-    <sheet name="summary_lifecycle_phases" sheetId="11" r:id="rId11"/>
-    <sheet name="summary_education_normalized" sheetId="12" r:id="rId12"/>
+    <sheet name="summary_se_knowledge" sheetId="8" r:id="rId7"/>
+    <sheet name="summary_tools_libraries" sheetId="9" r:id="rId8"/>
+    <sheet name="summary_task_types" sheetId="10" r:id="rId9"/>
+    <sheet name="summary_lifecycle_phases" sheetId="11" r:id="rId10"/>
+    <sheet name="summary_education_normalized" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="554">
   <si>
     <t>id</t>
   </si>
@@ -1488,37 +1487,13 @@
     <t>cost optimization</t>
   </si>
   <si>
-    <t>few-shot</t>
-  </si>
-  <si>
-    <t>chain-of-thought</t>
-  </si>
-  <si>
-    <t>hallucination</t>
-  </si>
-  <si>
     <t>prompt optimization</t>
   </si>
   <si>
-    <t>prompt tuning</t>
-  </si>
-  <si>
-    <t>zero-shot</t>
-  </si>
-  <si>
     <t>prompt refinement</t>
   </si>
   <si>
-    <t>jailbreak</t>
-  </si>
-  <si>
-    <t>prompt injection</t>
-  </si>
-  <si>
     <t>red teaming</t>
-  </si>
-  <si>
-    <t>self-consistency</t>
   </si>
   <si>
     <t>architecture</t>
@@ -3228,309 +3203,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="B2" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B3" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B4" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="B5" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="B6" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="B7" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B8">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>530</v>
-      </c>
-      <c r="B9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>531</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>533</v>
-      </c>
-      <c r="B12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>534</v>
-      </c>
-      <c r="B13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>535</v>
-      </c>
-      <c r="B14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>484</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>537</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>538</v>
-      </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>488</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>539</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>540</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>541</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>542</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>543</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>544</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>491</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>545</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>546</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>547</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>548</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>549</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>494</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>550</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>551</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>552</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>553</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>554</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -3582,7 +3254,7 @@
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B6" s="2">
         <v>20</v>
@@ -3590,7 +3262,7 @@
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -3598,7 +3270,7 @@
     </row>
     <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B8" s="2">
         <v>37</v>
@@ -3609,7 +3281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -7827,7 +7499,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -8212,132 +7884,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B2" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B7" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -8377,7 +7927,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -8385,7 +7935,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -8393,7 +7943,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -8404,7 +7954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
@@ -8432,7 +7982,7 @@
     </row>
     <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B3" s="2">
         <v>29</v>
@@ -8440,7 +7990,7 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B4" s="2">
         <v>19</v>
@@ -8448,7 +7998,7 @@
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B5" s="2">
         <v>20</v>
@@ -8456,7 +8006,7 @@
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B6" s="2">
         <v>19</v>
@@ -8464,7 +8014,7 @@
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B7" s="2">
         <v>14</v>
@@ -8472,7 +8022,7 @@
     </row>
     <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B8" s="2">
         <v>9</v>
@@ -8480,7 +8030,7 @@
     </row>
     <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
@@ -8496,7 +8046,7 @@
     </row>
     <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B11" s="2">
         <v>6</v>
@@ -8504,7 +8054,7 @@
     </row>
     <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B12" s="2">
         <v>6</v>
@@ -8520,7 +8070,7 @@
     </row>
     <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B14" s="2">
         <v>6</v>
@@ -8528,7 +8078,7 @@
     </row>
     <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -8544,7 +8094,7 @@
     </row>
     <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -8552,7 +8102,7 @@
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -8560,7 +8110,7 @@
     </row>
     <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
@@ -8568,7 +8118,7 @@
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
@@ -8576,7 +8126,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -8584,7 +8134,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -8592,7 +8142,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -8600,7 +8150,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -8608,7 +8158,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -8616,7 +8166,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -8624,7 +8174,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -8640,7 +8190,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -8648,7 +8198,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -8656,7 +8206,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -8680,7 +8230,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -8696,7 +8246,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -8704,7 +8254,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -8712,7 +8262,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -8720,9 +8270,312 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>520</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B2" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B4" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B5" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B6" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B39">
+      <c r="B7" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>526</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>527</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>529</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>530</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>485</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>531</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>532</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>533</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>534</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>535</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>536</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>486</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>537</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>538</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>539</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>540</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>541</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>487</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>542</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>543</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>544</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>545</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>546</v>
+      </c>
+      <c r="B36">
         <v>1</v>
       </c>
     </row>
